--- a/data/granulate.xlsx
+++ b/data/granulate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwjay\Documents\GitHub\Controller\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A513E-987C-4382-B38A-F3745B9ABB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251089F5-F0F8-4A37-9E0D-55ACC25A7787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5357" yWindow="351" windowWidth="16457" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>PLA</t>
   </si>
@@ -52,12 +52,34 @@
   </si>
   <si>
     <t>PID PP</t>
+  </si>
+  <si>
+    <t>0,01g</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLA z dodatkiem </t>
+  </si>
+  <si>
+    <t>ODCH.STAND</t>
+  </si>
+  <si>
+    <t>PRÓBA</t>
+  </si>
+  <si>
+    <t>MEDIANA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,9 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -370,263 +394,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.3046875" customWidth="1"/>
+    <col min="1" max="1" width="11.921875" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>109.026</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="2">
         <v>117.794</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="2">
         <v>76.825000000000003</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="2">
         <v>78.983000000000004</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="2">
         <v>80.423000000000002</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="2">
         <v>85.846999999999994</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>106.622</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="2">
         <v>118.76300000000001</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="3">
         <v>72.64</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="3">
         <v>77.813999999999993</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="3">
         <v>75.135999999999996</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="3">
         <v>81.08</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>115.392</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="2">
         <v>113.03400000000001</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="3">
         <v>73.846999999999994</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="3">
         <v>76.11</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="3">
         <v>74.510000000000005</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="3">
         <v>84.89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>110.22</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="2">
         <v>118.11199999999999</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="3">
         <v>72.647999999999996</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="3">
         <v>79.177000000000007</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="3">
         <v>72.706000000000003</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="3">
         <v>83.796999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>106.61499999999999</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="2">
         <v>118.119</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="3">
         <v>71.576999999999998</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="3">
         <v>75.7</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="3">
         <v>78.876999999999995</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="3">
         <v>81.078000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>112.4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="2">
         <v>118.803</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="3">
         <v>71.444999999999993</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="3">
         <v>79.230999999999995</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="3">
         <v>71.588999999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="3">
         <v>84.055999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>114.57299999999999</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="2">
         <v>112.992</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="3">
         <v>71.959000000000003</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="3">
         <v>76.616</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="3">
         <v>75.203000000000003</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="3">
         <v>83.57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
         <v>109.476</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="2">
         <v>118.41800000000001</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="3">
         <v>72.277000000000001</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="3">
         <v>77.739000000000004</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="3">
         <v>76.337000000000003</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="3">
         <v>81.064999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
         <v>111.215</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="2">
         <v>114.53</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="3">
         <v>70.811999999999998</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="3">
         <v>75.403000000000006</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="3">
         <v>77.213999999999999</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="3">
         <v>86.114000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>111.6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="2">
         <v>116.455</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="3">
         <v>72.210999999999999</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="3">
         <v>75.5</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="3">
         <v>77.715000000000003</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="3">
         <v>81.647999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <f>STDEV(A2:A11)</f>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:G12" si="0">STDEV(B2:B11)</f>
         <v>2.9594753082261045</v>
       </c>
-      <c r="B12">
-        <f>STDEV(B2:B11)</f>
+      <c r="C12">
+        <f t="shared" si="0"/>
         <v>2.3283744448768431</v>
       </c>
-      <c r="C12">
-        <f>STDEV(C2:C11)</f>
+      <c r="D12">
+        <f t="shared" si="0"/>
         <v>1.6881205492762927</v>
       </c>
-      <c r="D12">
-        <f>STDEV(D2:D11)</f>
+      <c r="E12">
+        <f t="shared" si="0"/>
         <v>1.5553137625572528</v>
       </c>
-      <c r="E12">
-        <f>STDEV(E2:E11)</f>
+      <c r="F12">
+        <f t="shared" si="0"/>
         <v>2.7135339811151553</v>
       </c>
-      <c r="F12">
-        <f>STDEV(F2:F11)</f>
+      <c r="G12">
+        <f t="shared" si="0"/>
         <v>1.9836347249990918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <f>MEDIAN(B2:B3,B5,B7:B11)</f>
+        <v>110.7175</v>
+      </c>
+      <c r="C13" s="2">
+        <f>MEDIAN(C2:C6,C9:C11)</f>
+        <v>117.953</v>
+      </c>
+      <c r="D13" s="3">
+        <f>MEDIAN(D3:D9,D11)</f>
+        <v>72.244</v>
+      </c>
+      <c r="E13" s="3">
+        <f>MEDIAN(E9,E8,E11,E6,E5,E4,E2,E3)</f>
+        <v>77.177500000000009</v>
+      </c>
+      <c r="F13" s="3">
+        <f>MEDIAN(F3:F4,F6,F5,F8:F11)</f>
+        <v>75.77000000000001</v>
+      </c>
+      <c r="G13" s="3">
+        <f>MEDIAN(G11,G2:G8)</f>
+        <v>83.683499999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
